--- a/Bottleneck Analysis.xlsx
+++ b/Bottleneck Analysis.xlsx
@@ -8,34 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Box Sync\Projects\Mfg_Ops_Excel_Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4049AF15-81C7-4FF1-922E-7B4B19268580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0B1323-DD81-47EC-B1AC-9E4F5D779C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1778" yWindow="2932" windowWidth="24667" windowHeight="14318" xr2:uid="{FBD79F45-1D17-4A9E-BF5E-3A06823E0B36}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="28800" windowHeight="11333" activeTab="1" xr2:uid="{FBD79F45-1D17-4A9E-BF5E-3A06823E0B36}"/>
   </bookViews>
   <sheets>
-    <sheet name="mvess" sheetId="67" r:id="rId1"/>
-    <sheet name="summ" sheetId="57" r:id="rId2"/>
+    <sheet name="mvess" sheetId="81" r:id="rId1"/>
+    <sheet name="summ" sheetId="82" r:id="rId2"/>
     <sheet name="XLStepsSettings" sheetId="2" state="veryHidden" r:id="rId3"/>
     <sheet name="Units" sheetId="9" r:id="rId4"/>
-    <sheet name="ExcelSteps" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="ExcelSteps" sheetId="3" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
     <definedName name="hr.day">Units!$I$4</definedName>
     <definedName name="min.hr">Units!$I$3</definedName>
-    <definedName name="mvess">mvess!$A:$K</definedName>
-    <definedName name="mvess_Dt">mvess!$K:$K</definedName>
+    <definedName name="mvess">mvess!$A:$P</definedName>
+    <definedName name="mvess_Dt">mvess!$M:$M</definedName>
+    <definedName name="mvess_Dt_UDF">mvess!$P:$P</definedName>
     <definedName name="mvess_Header">mvess!$1:$1</definedName>
+    <definedName name="mvess_IsInitRow">mvess!$G:$G</definedName>
     <definedName name="mvess_r_tp_tb">mvess!$A:$A</definedName>
-    <definedName name="mvess_t_finbatch">mvess!$F:$F</definedName>
-    <definedName name="mvess_t_finpack">mvess!$I:$I</definedName>
-    <definedName name="mvess_t_start">mvess!$E:$E</definedName>
-    <definedName name="mvess_t_startpack">mvess!$H:$H</definedName>
-    <definedName name="mvess_t_wait">mvess!$J:$J</definedName>
+    <definedName name="mvess_t_dummy">mvess!$H:$H</definedName>
+    <definedName name="mvess_t_make_fin">mvess!$I:$I</definedName>
+    <definedName name="mvess_t_make_init">mvess!$F:$F</definedName>
+    <definedName name="mvess_t_make_start">mvess!$E:$E</definedName>
+    <definedName name="mvess_t_make_start_UDF">mvess!$N:$N</definedName>
+    <definedName name="mvess_t_pack_fin">mvess!$K:$K</definedName>
+    <definedName name="mvess_t_pack_start">mvess!$J:$J</definedName>
+    <definedName name="mvess_t_pack_start_UDF">mvess!$O:$O</definedName>
+    <definedName name="mvess_t_wait">mvess!$L:$L</definedName>
     <definedName name="mvess_tb">mvess!$B:$B</definedName>
     <definedName name="mvess_tp">mvess!$C:$C</definedName>
     <definedName name="mvess_Vessel">mvess!$D:$D</definedName>
     <definedName name="summ">summ!$A:$J</definedName>
-    <definedName name="summ_DT">summ!$F:$F</definedName>
+    <definedName name="summ_Dt">summ!$F:$F</definedName>
     <definedName name="summ_Header">summ!$1:$1</definedName>
     <definedName name="summ_IsPkg_Constr">summ!$E:$E</definedName>
     <definedName name="summ_n_vessels">summ!$B:$B</definedName>
@@ -74,7 +83,7 @@
     <author>j.d.landgrebe</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{FA920531-02E0-4376-8C1A-EF3D6835EBD0}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B99F6599-45B7-4440-A569-B95ABC33CAC8}">
       <text>
         <r>
           <rPr>
@@ -87,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{ED62DD3B-F401-4214-A581-ADF739594D5D}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{E2ABCA87-A262-4670-846E-2D09FBE6716A}">
       <text>
         <r>
           <rPr>
@@ -96,11 +105,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Batch Time (Minutes)</t>
+          <t>Making Time (Minutes)</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{0A2AE466-45B8-4EDF-BAA4-AB6925C6DDAD}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{9C18FCDB-6B15-4021-A0C5-6188F3ABA9EF}">
       <text>
         <r>
           <rPr>
@@ -113,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{DE82B062-5BFD-41FF-A62A-F639B5FEA9FA}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A2DABCC9-D0DB-42CF-ADC5-3BBCC5F91C1A}">
       <text>
         <r>
           <rPr>
@@ -126,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{EA90B92A-8A75-454A-8891-6FFD50203B43}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{AF7CCA74-CF17-462F-AFEF-2E7485B8625C}">
       <text>
         <r>
           <rPr>
@@ -139,7 +148,46 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{9DF33DC1-6415-4FC5-BDC3-5ED6D23E18D2}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{F3B37188-2ACB-408E-A165-A230A99F4DF2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter start time for each vessel's initial row (to override t_make_start formula)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{E5619C6F-43B1-4495-AC20-1E570541E70D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>input TRUE for each vessel's initial row and enter a start time in t_make_init column</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{60BF4FB4-47F4-4F2B-AE9D-BC16978D9356}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Blank column - helper column for JMP graphing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{095604A2-B748-4987-9397-A838A1FCE12D}">
       <text>
         <r>
           <rPr>
@@ -152,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{BDDA9556-2768-46A2-A34F-202CCBE94162}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{D9C21614-5BC1-4AA6-AB85-B7C5186CB6EF}">
       <text>
         <r>
           <rPr>
@@ -165,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{B7B38078-33F0-45B5-9E43-3CFEA83F22F2}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{18244B22-BEEF-4B4C-901C-FAC7BFF31D62}">
       <text>
         <r>
           <rPr>
@@ -178,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{BD45D1E5-BE7F-42C1-9A4D-4CA5AAF1A052}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{7A068300-D2C4-4624-8870-9A96B6DA15D3}">
       <text>
         <r>
           <rPr>
@@ -187,11 +235,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Wait time incurred due to packing bottleneck (Minutes)</t>
+          <t>Delay/wait time due to packing constraint if any</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{7F82FA00-CDB3-4F79-ADCB-1F02E097C47A}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{0C990C49-D01C-49CF-B558-2A93AC5A1478}">
       <text>
         <r>
           <rPr>
@@ -214,7 +262,7 @@
     <author>j.d.landgrebe</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{CFBC3535-D9CB-47FC-9F2E-9FA98C887A13}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{3D3E44C2-3D0D-4CA8-8342-B176C665A929}">
       <text>
         <r>
           <rPr>
@@ -227,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{80650C8C-EA1A-45FB-BA55-6E3F38D57A0D}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{1FA98433-2FC3-449B-AF06-86933EE383B5}">
       <text>
         <r>
           <rPr>
@@ -236,11 +284,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Batch Time (Minutes)</t>
+          <t>Number of Vessels</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{390E7BC4-7B8C-4280-91B5-E2018261569B}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{70765530-059B-417D-80EF-4D3A22021524}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Making Time (Minutes)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A80E742D-2695-47AF-8768-B109F0339096}">
       <text>
         <r>
           <rPr>
@@ -253,21 +314,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{4911F4C6-C9D4-4773-8BF1-6E874C363E2D}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{637E00CD-F161-4521-B3D3-A63D12AEB77D}">
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>TRUE if packing constrained/bottlenecked. FALSE if not</t>
+          <t>TRUE if Packing Bottlenecked; FALSE if Making Bottlenecked</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{2585C485-4798-4311-A762-F47985B0C6D2}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{E19A5CE7-EAB0-4210-95EE-FF0D3F3AF1A7}">
       <text>
         <r>
           <rPr>
@@ -280,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{464330F7-0454-4106-BF77-496E8CF4C348}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{35E9DFEE-9548-455D-8EC0-80BFDD23E984}">
       <text>
         <r>
           <rPr>
@@ -289,11 +349,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Wait time incurred due to packing bottleneck (Minutes)</t>
+          <t>Delay/wait time due to packing constraint if any</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{CDC6D157-7656-4ACF-8C76-EBB4CA993914}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{28D8763E-24CE-4747-B992-2392AABD9AD0}">
       <text>
         <r>
           <rPr>
@@ -302,12 +362,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Batch throughput per day (n_batches per 24 hours)
-</t>
+          <t>Batch throughput per day (n_batches per 24 hours)</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{59628FE5-7121-498A-BF38-D964502B244C}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{813C3064-A14C-49FE-B41E-B1508F9D1A44}">
       <text>
         <r>
           <rPr>
@@ -316,16 +375,14 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Theoretical Batch throughput per day without packing constraint (n_batches per 24 hours)
-</t>
+          <t>Theoretical Batch throughput per day without packing constraint (n_batches per 24 hours)</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{A83041A8-EA5F-46E0-BC2B-74784F0DD5AA}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{9F6A3FF5-9538-495B-A14C-2F4A46C01040}">
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -333,24 +390,36 @@
           </rPr>
           <t>Operation Productivity Ratio</t>
         </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
       </text>
     </comment>
   </commentList>
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="95">
   <si>
     <t>tb</t>
   </si>
@@ -454,18 +523,6 @@
     <t>0.00</t>
   </si>
   <si>
-    <t>t_start</t>
-  </si>
-  <si>
-    <t>t_finpack</t>
-  </si>
-  <si>
-    <t>t_finbatch</t>
-  </si>
-  <si>
-    <t>t_startpack</t>
-  </si>
-  <si>
     <t>Dt</t>
   </si>
   <si>
@@ -502,9 +559,6 @@
     <t>tp to tb ratio</t>
   </si>
   <si>
-    <t>=@mvess_t_start +@mvess_tb</t>
-  </si>
-  <si>
     <t>0.0</t>
   </si>
   <si>
@@ -538,10 +592,118 @@
     <t>Time between consecutive batches (Minutes)</t>
   </si>
   <si>
-    <t>Wait time incurred due to packing bottleneck (Minutes)</t>
-  </si>
-  <si>
     <t>t_dummy</t>
+  </si>
+  <si>
+    <t>t_make_start</t>
+  </si>
+  <si>
+    <t>t_make_fin</t>
+  </si>
+  <si>
+    <t>t_pack_start</t>
+  </si>
+  <si>
+    <t>t_pack_fin</t>
+  </si>
+  <si>
+    <t>t_make_init</t>
+  </si>
+  <si>
+    <t>Making Time (Minutes)</t>
+  </si>
+  <si>
+    <t>=MAX(@mvess_t_make_fin, INDIRECT(ADDRESS(ROW() - 1, MATCH("t_pack_fin", mvess_Header, 0))))</t>
+  </si>
+  <si>
+    <t>=@mvess_t_pack_start +@mvess_tp</t>
+  </si>
+  <si>
+    <t>IsInitRow</t>
+  </si>
+  <si>
+    <t>=IF(@mvess_IsInitRow, @mvess_t_make_init, INDIRECT(ADDRESS( ROW() - 2, MATCH("t_pack_fin", mvess_Header,0))))</t>
+  </si>
+  <si>
+    <t>=IF(@mvess_IsInitRow, "", @mvess_t_pack_start -@mvess_t_make_fin)</t>
+  </si>
+  <si>
+    <t>=IF(@mvess_IsInitRow, "", @mvess_t_pack_fin - INDIRECT(ADDRESS(ROW() - 1, MATCH("t_pack_fin", mvess_Header, 0))))</t>
+  </si>
+  <si>
+    <t>input TRUE for each vessel's initial row and enter a start time in t_make_init column</t>
+  </si>
+  <si>
+    <t>Enter start time for each vessel's initial row (to override t_make_start formula)</t>
+  </si>
+  <si>
+    <t>Col_AddGroup</t>
+  </si>
+  <si>
+    <t>Tbl_FreezeRow1</t>
+  </si>
+  <si>
+    <t>Blank column - helper column for JMP graphing</t>
+  </si>
+  <si>
+    <t>Delay/wait time due to packing constraint if any</t>
+  </si>
+  <si>
+    <t>=@mvess_t_make_start +@mvess_tb</t>
+  </si>
+  <si>
+    <t>t_pack_start_UDF</t>
+  </si>
+  <si>
+    <t>Dt_UDF</t>
+  </si>
+  <si>
+    <t>t_make_start_UDF</t>
+  </si>
+  <si>
+    <t>=@summ_tb*@summ_r_tp_tb</t>
+  </si>
+  <si>
+    <t>Number of Vessels</t>
+  </si>
+  <si>
+    <t>TRUE if Packing Bottlenecked; FALSE if Making Bottlenecked</t>
+  </si>
+  <si>
+    <t>Batch throughput per day (n_batches per 24 hours)</t>
+  </si>
+  <si>
+    <t>Theoretical Batch throughput per day without packing constraint (n_batches per 24 hours)</t>
+  </si>
+  <si>
+    <t>Operation Productivity Ratio</t>
+  </si>
+  <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>=@summ_tb &lt;@summ_tp</t>
+  </si>
+  <si>
+    <t>=IF(@summ_IsPkg_Constr, @summ_tp, (@summ_tb+@summ_tp)/@summ_n_vessels)</t>
+  </si>
+  <si>
+    <t>=IF(@summ_IsPkg_Constr,@summ_tp -@summ_tb, 0)</t>
+  </si>
+  <si>
+    <t>=IF(@summ_IsPkg_Constr, 1/@summ_tp, @summ_n_vessels/(@summ_tb+@summ_tp))*min.hr*hr.day</t>
+  </si>
+  <si>
+    <t>=(@summ_n_vessels/@summ_tb)*min.hr*hr.day</t>
+  </si>
+  <si>
+    <t>=@summ_Qb/@summ_Qb_th</t>
+  </si>
+  <si>
+    <t>summ_t</t>
+  </si>
+  <si>
+    <t>Alternative formula using user-defined ROWSHIFTVAL function (in ExcelSteps VBA project)</t>
   </si>
 </sst>
 </file>
@@ -552,7 +714,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,15 +784,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -662,8 +817,14 @@
         <fgColor theme="5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -755,17 +916,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -799,42 +983,44 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Accent1" xfId="4" builtinId="29"/>
     <cellStyle name="Accent2" xfId="5" builtinId="33"/>
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="3" builtinId="10"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -847,6 +1033,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Errors"/>
+      <sheetName val="Settings"/>
+      <sheetName val="XLStepsSettings"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="ROWSHIFTVAL"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1145,26 +1351,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5A877A-055A-47C8-9FE9-4B358B4C2E05}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0DC028-49DC-4BF0-B0F9-7E781010AF9F}">
+  <sheetPr codeName="Sheet11">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:K9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" customWidth="1"/>
-    <col min="2" max="2" width="4.73046875" customWidth="1"/>
-    <col min="3" max="11" width="12.59765625" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.59765625" style="34" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="11.59765625" style="34" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9.59765625" style="34" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="11" width="11.59765625" customWidth="1"/>
+    <col min="12" max="13" width="7.59765625" customWidth="1"/>
+    <col min="14" max="14" width="17.53125" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="16.86328125" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="8.86328125" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="16384" width="9.06640625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -1173,361 +1391,510 @@
         <v>1</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="35">
-        <v>5</v>
-      </c>
-      <c r="B2" s="8">
-        <v>90</v>
-      </c>
-      <c r="C2" s="21">
-        <f t="shared" ref="C2:C9" si="0">mvess_r_tp_tb*mvess_tb</f>
+      <c r="N1" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33">
+        <v>90</v>
+      </c>
+      <c r="C2" s="20">
+        <f>mvess_r_tp_tb*mvess_tb</f>
+        <v>90</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="20">
+        <f ca="1">_xlfn.SINGLE(IF(_xlfn.SINGLE(mvess_IsInitRow), _xlfn.SINGLE(mvess_t_make_init), INDIRECT(ADDRESS( ROW() - 2, MATCH("t_pack_fin", mvess_Header,0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="31">
+        <v>0</v>
+      </c>
+      <c r="G2" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="32">
+        <f ca="1">mvess_t_make_start +mvess_tb</f>
+        <v>90</v>
+      </c>
+      <c r="J2" s="32">
+        <f ca="1">MAX(_xlfn.SINGLE(mvess_t_make_fin), INDIRECT(ADDRESS(ROW() - 1, MATCH("t_pack_fin", mvess_Header, 0))))</f>
+        <v>90</v>
+      </c>
+      <c r="K2" s="32">
+        <f ca="1">mvess_t_pack_start +mvess_tp</f>
+        <v>180</v>
+      </c>
+      <c r="L2" s="32" t="str">
+        <f>IF(_xlfn.SINGLE(mvess_IsInitRow), "", _xlfn.SINGLE(mvess_t_pack_start) -_xlfn.SINGLE(mvess_t_make_fin))</f>
+        <v/>
+      </c>
+      <c r="M2" s="20" t="str">
+        <f ca="1">IF(_xlfn.SINGLE(mvess_IsInitRow), "", _xlfn.SINGLE(mvess_t_pack_fin) -_xlfn.SINGLE( INDIRECT(ADDRESS(ROW() - 1, MATCH("t_pack_fin", mvess_Header, 0)))))</f>
+        <v/>
+      </c>
+      <c r="N2" s="40" cm="1">
+        <f t="array" ref="N2">IF(_xlfn.SINGLE(mvess_IsInitRow), _xlfn.SINGLE(mvess_t_make_init), [1]!ROWSHIFTVAL(-2, "t_pack_fin"))</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="39">
+        <f ca="1">IFERROR(MAX(_xlfn.SINGLE(mvess_t_make_fin), [1]!ROWSHIFTVAL(-1,"t_pack_fin")), _xlfn.SINGLE(mvess_t_make_fin))</f>
+        <v>90</v>
+      </c>
+      <c r="P2" s="39" t="str" cm="1">
+        <f t="array" ref="P2">IF(_xlfn.SINGLE(mvess_IsInitRow),"", _xlfn.SINGLE(mvess_t_pack_fin) - [1]!ROWSHIFTVAL(-1,"t_pack_fin"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A3" s="25">
+        <f t="shared" ref="A3:B9" si="0">A$2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="23">
+        <f>B$2</f>
+        <v>90</v>
+      </c>
+      <c r="C3" s="20">
+        <f>mvess_r_tp_tb*mvess_tb</f>
+        <v>90</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="20">
+        <f ca="1">_xlfn.SINGLE(IF(_xlfn.SINGLE(mvess_IsInitRow), _xlfn.SINGLE(mvess_t_make_init), INDIRECT(ADDRESS( ROW() - 2, MATCH("t_pack_fin", mvess_Header,0)))))</f>
+        <v>90</v>
+      </c>
+      <c r="F3" s="31">
+        <f>(mvess_tb+mvess_tp)/2</f>
+        <v>90</v>
+      </c>
+      <c r="G3" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="32">
+        <f ca="1">mvess_t_make_start +mvess_tb</f>
+        <v>180</v>
+      </c>
+      <c r="J3" s="32">
+        <f ca="1">MAX(_xlfn.SINGLE(mvess_t_make_fin), INDIRECT(ADDRESS(ROW() - 1, MATCH("t_pack_fin", mvess_Header, 0))))</f>
+        <v>180</v>
+      </c>
+      <c r="K3" s="32">
+        <f ca="1">mvess_t_pack_start +mvess_tp</f>
+        <v>270</v>
+      </c>
+      <c r="L3" s="32" t="str">
+        <f>IF(_xlfn.SINGLE(mvess_IsInitRow), "", _xlfn.SINGLE(mvess_t_pack_start) -_xlfn.SINGLE(mvess_t_make_fin))</f>
+        <v/>
+      </c>
+      <c r="M3" s="20" t="str">
+        <f ca="1">IF(_xlfn.SINGLE(mvess_IsInitRow), "", _xlfn.SINGLE(mvess_t_pack_fin) -_xlfn.SINGLE( INDIRECT(ADDRESS(ROW() - 1, MATCH("t_pack_fin", mvess_Header, 0)))))</f>
+        <v/>
+      </c>
+      <c r="N3" s="40" cm="1">
+        <f t="array" ref="N3">IF(_xlfn.SINGLE(mvess_IsInitRow), _xlfn.SINGLE(mvess_t_make_init), [1]!ROWSHIFTVAL(-2, "t_pack_fin"))</f>
+        <v>90</v>
+      </c>
+      <c r="O3" s="39">
+        <f ca="1">IFERROR(MAX(_xlfn.SINGLE(mvess_t_make_fin), [1]!ROWSHIFTVAL(-1,"t_pack_fin")), _xlfn.SINGLE(mvess_t_make_fin))</f>
+        <v>180</v>
+      </c>
+      <c r="P3" s="39" t="str" cm="1">
+        <f t="array" ref="P3">IF(_xlfn.SINGLE(mvess_IsInitRow), "", _xlfn.SINGLE(mvess_t_pack_fin) - [1]!ROWSHIFTVAL(-1,"t_pack_fin"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B4" s="23">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C4" s="20">
+        <f>mvess_r_tp_tb*mvess_tb</f>
+        <v>90</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="20">
+        <f ca="1">_xlfn.SINGLE(IF(_xlfn.SINGLE(mvess_IsInitRow), _xlfn.SINGLE(mvess_t_make_init), INDIRECT(ADDRESS( ROW() - 2, MATCH("t_pack_fin", mvess_Header,0)))))</f>
+        <v>180</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="32">
+        <f ca="1">mvess_t_make_start +mvess_tb</f>
+        <v>270</v>
+      </c>
+      <c r="J4" s="32">
+        <f ca="1">MAX(_xlfn.SINGLE(mvess_t_make_fin), INDIRECT(ADDRESS(ROW() - 1, MATCH("t_pack_fin", mvess_Header, 0))))</f>
+        <v>270</v>
+      </c>
+      <c r="K4" s="32">
+        <f ca="1">mvess_t_pack_start +mvess_tp</f>
+        <v>360</v>
+      </c>
+      <c r="L4" s="32">
+        <f ca="1">IF(_xlfn.SINGLE(mvess_IsInitRow), "", _xlfn.SINGLE(mvess_t_pack_start) -_xlfn.SINGLE(mvess_t_make_fin))</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="20">
+        <f ca="1">IF(_xlfn.SINGLE(mvess_IsInitRow), "", _xlfn.SINGLE(mvess_t_pack_fin) -_xlfn.SINGLE( INDIRECT(ADDRESS(ROW() - 1, MATCH("t_pack_fin", mvess_Header, 0)))))</f>
+        <v>90</v>
+      </c>
+      <c r="N4" s="40" cm="1">
+        <f t="array" aca="1" ref="N4" ca="1">IF(_xlfn.SINGLE(mvess_IsInitRow), _xlfn.SINGLE(mvess_t_make_init), [1]!ROWSHIFTVAL(-2, "t_pack_fin"))</f>
+        <v>180</v>
+      </c>
+      <c r="O4" s="39">
+        <f ca="1">IFERROR(MAX(_xlfn.SINGLE(mvess_t_make_fin), [1]!ROWSHIFTVAL(-1,"t_pack_fin")), _xlfn.SINGLE(mvess_t_make_fin))</f>
+        <v>270</v>
+      </c>
+      <c r="P4" s="39" cm="1">
+        <f t="array" aca="1" ref="P4" ca="1">IF(_xlfn.SINGLE(mvess_IsInitRow), "", _xlfn.SINGLE(mvess_t_pack_fin) - [1]!ROWSHIFTVAL(-1,"t_pack_fin"))</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B5" s="23">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C5" s="20">
+        <f>mvess_r_tp_tb*mvess_tb</f>
+        <v>90</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="20">
+        <f ca="1">_xlfn.SINGLE(IF(_xlfn.SINGLE(mvess_IsInitRow), _xlfn.SINGLE(mvess_t_make_init), INDIRECT(ADDRESS( ROW() - 2, MATCH("t_pack_fin", mvess_Header,0)))))</f>
+        <v>270</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="32">
+        <f ca="1">mvess_t_make_start +mvess_tb</f>
+        <v>360</v>
+      </c>
+      <c r="J5" s="32">
+        <f ca="1">MAX(_xlfn.SINGLE(mvess_t_make_fin), INDIRECT(ADDRESS(ROW() - 1, MATCH("t_pack_fin", mvess_Header, 0))))</f>
+        <v>360</v>
+      </c>
+      <c r="K5" s="32">
+        <f ca="1">mvess_t_pack_start +mvess_tp</f>
         <v>450</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="28">
-        <v>0</v>
-      </c>
-      <c r="F2" s="21">
-        <f t="shared" ref="F2:F9" si="1">mvess_t_start +mvess_tb</f>
-        <v>90</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="30">
-        <f>mvess_t_finbatch</f>
-        <v>90</v>
-      </c>
-      <c r="I2" s="27">
-        <f t="shared" ref="I2" si="2">mvess_t_startpack +mvess_tp</f>
+      <c r="L5" s="32">
+        <f ca="1">IF(_xlfn.SINGLE(mvess_IsInitRow), "", _xlfn.SINGLE(mvess_t_pack_start) -_xlfn.SINGLE(mvess_t_make_fin))</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="20">
+        <f ca="1">IF(_xlfn.SINGLE(mvess_IsInitRow), "", _xlfn.SINGLE(mvess_t_pack_fin) -_xlfn.SINGLE( INDIRECT(ADDRESS(ROW() - 1, MATCH("t_pack_fin", mvess_Header, 0)))))</f>
+        <v>90</v>
+      </c>
+      <c r="N5" s="40" cm="1">
+        <f t="array" aca="1" ref="N5" ca="1">IF(_xlfn.SINGLE(mvess_IsInitRow), _xlfn.SINGLE(mvess_t_make_init), [1]!ROWSHIFTVAL(-2, "t_pack_fin"))</f>
+        <v>270</v>
+      </c>
+      <c r="O5" s="39">
+        <f ca="1">IFERROR(MAX(_xlfn.SINGLE(mvess_t_make_fin), [1]!ROWSHIFTVAL(-1,"t_pack_fin")), _xlfn.SINGLE(mvess_t_make_fin))</f>
+        <v>360</v>
+      </c>
+      <c r="P5" s="39" cm="1">
+        <f t="array" aca="1" ref="P5" ca="1">IF(_xlfn.SINGLE(mvess_IsInitRow), "", _xlfn.SINGLE(mvess_t_pack_fin) - [1]!ROWSHIFTVAL(-1,"t_pack_fin"))</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B6" s="23">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C6" s="20">
+        <f>mvess_r_tp_tb*mvess_tb</f>
+        <v>90</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="20">
+        <f ca="1">_xlfn.SINGLE(IF(_xlfn.SINGLE(mvess_IsInitRow), _xlfn.SINGLE(mvess_t_make_init), INDIRECT(ADDRESS( ROW() - 2, MATCH("t_pack_fin", mvess_Header,0)))))</f>
+        <v>360</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="32">
+        <f ca="1">mvess_t_make_start +mvess_tb</f>
+        <v>450</v>
+      </c>
+      <c r="J6" s="32">
+        <f ca="1">MAX(_xlfn.SINGLE(mvess_t_make_fin), INDIRECT(ADDRESS(ROW() - 1, MATCH("t_pack_fin", mvess_Header, 0))))</f>
+        <v>450</v>
+      </c>
+      <c r="K6" s="32">
+        <f ca="1">mvess_t_pack_start +mvess_tp</f>
         <v>540</v>
       </c>
-      <c r="J2" s="21" t="str">
-        <f t="shared" ref="J2:J9" si="3">IF(ROW()&lt;4,"",mvess_t_startpack -mvess_t_finbatch)</f>
-        <v/>
-      </c>
-      <c r="K2" s="21" t="str">
-        <f>IF(ROW()&lt;4,"",I2-I1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="36">
-        <f t="shared" ref="A3:B9" si="4">A$2</f>
-        <v>5</v>
-      </c>
-      <c r="B3" s="25">
-        <f>B$2</f>
-        <v>90</v>
-      </c>
-      <c r="C3" s="21">
+      <c r="L6" s="32">
+        <f ca="1">IF(_xlfn.SINGLE(mvess_IsInitRow), "", _xlfn.SINGLE(mvess_t_pack_start) -_xlfn.SINGLE(mvess_t_make_fin))</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="20">
+        <f ca="1">IF(_xlfn.SINGLE(mvess_IsInitRow), "", _xlfn.SINGLE(mvess_t_pack_fin) -_xlfn.SINGLE( INDIRECT(ADDRESS(ROW() - 1, MATCH("t_pack_fin", mvess_Header, 0)))))</f>
+        <v>90</v>
+      </c>
+      <c r="N6" s="40" cm="1">
+        <f t="array" aca="1" ref="N6" ca="1">IF(_xlfn.SINGLE(mvess_IsInitRow), _xlfn.SINGLE(mvess_t_make_init), [1]!ROWSHIFTVAL(-2, "t_pack_fin"))</f>
+        <v>360</v>
+      </c>
+      <c r="O6" s="39">
+        <f ca="1">IFERROR(MAX(_xlfn.SINGLE(mvess_t_make_fin), [1]!ROWSHIFTVAL(-1,"t_pack_fin")), _xlfn.SINGLE(mvess_t_make_fin))</f>
+        <v>450</v>
+      </c>
+      <c r="P6" s="39" cm="1">
+        <f t="array" aca="1" ref="P6" ca="1">IF(_xlfn.SINGLE(mvess_IsInitRow), "", _xlfn.SINGLE(mvess_t_pack_fin) - [1]!ROWSHIFTVAL(-1,"t_pack_fin"))</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7" s="25">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="23">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C7" s="20">
+        <f>mvess_r_tp_tb*mvess_tb</f>
+        <v>90</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="20">
+        <f ca="1">_xlfn.SINGLE(IF(_xlfn.SINGLE(mvess_IsInitRow), _xlfn.SINGLE(mvess_t_make_init), INDIRECT(ADDRESS( ROW() - 2, MATCH("t_pack_fin", mvess_Header,0)))))</f>
         <v>450</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="28">
-        <f>(mvess_tb+mvess_tp)/2</f>
-        <v>270</v>
-      </c>
-      <c r="F3" s="21">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="30">
-        <f ca="1">MAX(F3,OFFSET(I3,-1,0))</f>
+      <c r="F7" s="28"/>
+      <c r="G7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="32">
+        <f ca="1">mvess_t_make_start +mvess_tb</f>
         <v>540</v>
       </c>
-      <c r="I3" s="27">
-        <f t="shared" ref="I3:I9" ca="1" si="5">mvess_t_startpack +mvess_tp</f>
-        <v>990</v>
-      </c>
-      <c r="J3" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K3" s="21" t="str">
-        <f t="shared" ref="K3:K9" si="6">IF(ROW()&lt;4,"",I3-I2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="36">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="B4" s="25">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="C4" s="21">
+      <c r="J7" s="32">
+        <f ca="1">MAX(_xlfn.SINGLE(mvess_t_make_fin), INDIRECT(ADDRESS(ROW() - 1, MATCH("t_pack_fin", mvess_Header, 0))))</f>
+        <v>540</v>
+      </c>
+      <c r="K7" s="32">
+        <f ca="1">mvess_t_pack_start +mvess_tp</f>
+        <v>630</v>
+      </c>
+      <c r="L7" s="32">
+        <f ca="1">IF(_xlfn.SINGLE(mvess_IsInitRow), "", _xlfn.SINGLE(mvess_t_pack_start) -_xlfn.SINGLE(mvess_t_make_fin))</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="20">
+        <f ca="1">IF(_xlfn.SINGLE(mvess_IsInitRow), "", _xlfn.SINGLE(mvess_t_pack_fin) -_xlfn.SINGLE( INDIRECT(ADDRESS(ROW() - 1, MATCH("t_pack_fin", mvess_Header, 0)))))</f>
+        <v>90</v>
+      </c>
+      <c r="N7" s="40" cm="1">
+        <f t="array" aca="1" ref="N7" ca="1">IF(_xlfn.SINGLE(mvess_IsInitRow), _xlfn.SINGLE(mvess_t_make_init), [1]!ROWSHIFTVAL(-2, "t_pack_fin"))</f>
+        <v>450</v>
+      </c>
+      <c r="O7" s="39">
+        <f ca="1">IFERROR(MAX(_xlfn.SINGLE(mvess_t_make_fin), [1]!ROWSHIFTVAL(-1,"t_pack_fin")), _xlfn.SINGLE(mvess_t_make_fin))</f>
+        <v>540</v>
+      </c>
+      <c r="P7" s="39" cm="1">
+        <f t="array" aca="1" ref="P7" ca="1">IF(_xlfn.SINGLE(mvess_IsInitRow), "", _xlfn.SINGLE(mvess_t_pack_fin) - [1]!ROWSHIFTVAL(-1,"t_pack_fin"))</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8" s="25">
         <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="29">
-        <f t="shared" ref="E4:E9" si="7">I2</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="23">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C8" s="20">
+        <f>mvess_r_tp_tb*mvess_tb</f>
+        <v>90</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="20">
+        <f ca="1">_xlfn.SINGLE(IF(_xlfn.SINGLE(mvess_IsInitRow), _xlfn.SINGLE(mvess_t_make_init), INDIRECT(ADDRESS( ROW() - 2, MATCH("t_pack_fin", mvess_Header,0)))))</f>
         <v>540</v>
       </c>
-      <c r="F4" s="21">
-        <f t="shared" si="1"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="32">
+        <f ca="1">mvess_t_make_start +mvess_tb</f>
         <v>630</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="30">
-        <f t="shared" ref="H4:H9" ca="1" si="8">MAX(F4,OFFSET(I4,-1,0))</f>
-        <v>990</v>
-      </c>
-      <c r="I4" s="27">
-        <f t="shared" ca="1" si="5"/>
-        <v>1440</v>
-      </c>
-      <c r="J4" s="21">
-        <f t="shared" ca="1" si="3"/>
-        <v>360</v>
-      </c>
-      <c r="K4" s="21">
-        <f t="shared" ca="1" si="6"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="36">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="B5" s="25">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="C5" s="21">
+      <c r="J8" s="32">
+        <f ca="1">MAX(_xlfn.SINGLE(mvess_t_make_fin), INDIRECT(ADDRESS(ROW() - 1, MATCH("t_pack_fin", mvess_Header, 0))))</f>
+        <v>630</v>
+      </c>
+      <c r="K8" s="32">
+        <f ca="1">mvess_t_pack_start +mvess_tp</f>
+        <v>720</v>
+      </c>
+      <c r="L8" s="32">
+        <f ca="1">IF(_xlfn.SINGLE(mvess_IsInitRow), "", _xlfn.SINGLE(mvess_t_pack_start) -_xlfn.SINGLE(mvess_t_make_fin))</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="20">
+        <f ca="1">IF(_xlfn.SINGLE(mvess_IsInitRow), "", _xlfn.SINGLE(mvess_t_pack_fin) -_xlfn.SINGLE( INDIRECT(ADDRESS(ROW() - 1, MATCH("t_pack_fin", mvess_Header, 0)))))</f>
+        <v>90</v>
+      </c>
+      <c r="N8" s="40" cm="1">
+        <f t="array" aca="1" ref="N8" ca="1">IF(_xlfn.SINGLE(mvess_IsInitRow), _xlfn.SINGLE(mvess_t_make_init), [1]!ROWSHIFTVAL(-2, "t_pack_fin"))</f>
+        <v>540</v>
+      </c>
+      <c r="O8" s="39">
+        <f ca="1">IFERROR(MAX(_xlfn.SINGLE(mvess_t_make_fin), [1]!ROWSHIFTVAL(-1,"t_pack_fin")), _xlfn.SINGLE(mvess_t_make_fin))</f>
+        <v>630</v>
+      </c>
+      <c r="P8" s="39" cm="1">
+        <f t="array" aca="1" ref="P8" ca="1">IF(_xlfn.SINGLE(mvess_IsInitRow), "", _xlfn.SINGLE(mvess_t_pack_fin) - [1]!ROWSHIFTVAL(-1,"t_pack_fin"))</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A9" s="25">
         <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="29">
-        <f t="shared" ca="1" si="7"/>
-        <v>990</v>
-      </c>
-      <c r="F5" s="21">
-        <f t="shared" ca="1" si="1"/>
-        <v>1080</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="30">
-        <f t="shared" ca="1" si="8"/>
-        <v>1440</v>
-      </c>
-      <c r="I5" s="27">
-        <f t="shared" ca="1" si="5"/>
-        <v>1890</v>
-      </c>
-      <c r="J5" s="21">
-        <f t="shared" ca="1" si="3"/>
-        <v>360</v>
-      </c>
-      <c r="K5" s="21">
-        <f t="shared" ca="1" si="6"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="36">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="25">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="C6" s="21">
+        <v>1</v>
+      </c>
+      <c r="B9" s="23">
         <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="29">
-        <f t="shared" ca="1" si="7"/>
-        <v>1440</v>
-      </c>
-      <c r="F6" s="21">
-        <f t="shared" ca="1" si="1"/>
-        <v>1530</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="30">
-        <f t="shared" ca="1" si="8"/>
-        <v>1890</v>
-      </c>
-      <c r="I6" s="27">
-        <f t="shared" ca="1" si="5"/>
-        <v>2340</v>
-      </c>
-      <c r="J6" s="21">
-        <f t="shared" ca="1" si="3"/>
-        <v>360</v>
-      </c>
-      <c r="K6" s="21">
-        <f t="shared" ca="1" si="6"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="36">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="25">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="C7" s="21">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="29">
-        <f t="shared" ca="1" si="7"/>
-        <v>1890</v>
-      </c>
-      <c r="F7" s="21">
-        <f t="shared" ca="1" si="1"/>
-        <v>1980</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="30">
-        <f t="shared" ca="1" si="8"/>
-        <v>2340</v>
-      </c>
-      <c r="I7" s="27">
-        <f t="shared" ca="1" si="5"/>
-        <v>2790</v>
-      </c>
-      <c r="J7" s="21">
-        <f t="shared" ca="1" si="3"/>
-        <v>360</v>
-      </c>
-      <c r="K7" s="21">
-        <f t="shared" ca="1" si="6"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="36">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="25">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="C8" s="21">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="29">
-        <f t="shared" ca="1" si="7"/>
-        <v>2340</v>
-      </c>
-      <c r="F8" s="21">
-        <f t="shared" ca="1" si="1"/>
-        <v>2430</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="30">
-        <f t="shared" ca="1" si="8"/>
-        <v>2790</v>
-      </c>
-      <c r="I8" s="27">
-        <f t="shared" ca="1" si="5"/>
-        <v>3240</v>
-      </c>
-      <c r="J8" s="21">
-        <f t="shared" ca="1" si="3"/>
-        <v>360</v>
-      </c>
-      <c r="K8" s="21">
-        <f t="shared" ca="1" si="6"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="36">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="25">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="C9" s="21">
-        <f t="shared" si="0"/>
-        <v>450</v>
+        <v>90</v>
+      </c>
+      <c r="C9" s="20">
+        <f>mvess_r_tp_tb*mvess_tb</f>
+        <v>90</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="29">
-        <f t="shared" ca="1" si="7"/>
-        <v>2790</v>
-      </c>
-      <c r="F9" s="21">
-        <f t="shared" ca="1" si="1"/>
-        <v>2880</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="30">
-        <f t="shared" ca="1" si="8"/>
-        <v>3240</v>
-      </c>
-      <c r="I9" s="27">
-        <f t="shared" ca="1" si="5"/>
-        <v>3690</v>
-      </c>
-      <c r="J9" s="21">
-        <f t="shared" ca="1" si="3"/>
-        <v>360</v>
-      </c>
-      <c r="K9" s="21">
-        <f t="shared" ca="1" si="6"/>
-        <v>450</v>
+        <v>49</v>
+      </c>
+      <c r="E9" s="20">
+        <f ca="1">_xlfn.SINGLE(IF(_xlfn.SINGLE(mvess_IsInitRow), _xlfn.SINGLE(mvess_t_make_init), INDIRECT(ADDRESS( ROW() - 2, MATCH("t_pack_fin", mvess_Header,0)))))</f>
+        <v>630</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="32">
+        <f ca="1">mvess_t_make_start +mvess_tb</f>
+        <v>720</v>
+      </c>
+      <c r="J9" s="32">
+        <f ca="1">MAX(_xlfn.SINGLE(mvess_t_make_fin), INDIRECT(ADDRESS(ROW() - 1, MATCH("t_pack_fin", mvess_Header, 0))))</f>
+        <v>720</v>
+      </c>
+      <c r="K9" s="32">
+        <f ca="1">mvess_t_pack_start +mvess_tp</f>
+        <v>810</v>
+      </c>
+      <c r="L9" s="32">
+        <f ca="1">IF(_xlfn.SINGLE(mvess_IsInitRow), "", _xlfn.SINGLE(mvess_t_pack_start) -_xlfn.SINGLE(mvess_t_make_fin))</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="20">
+        <f ca="1">IF(_xlfn.SINGLE(mvess_IsInitRow), "", _xlfn.SINGLE(mvess_t_pack_fin) -_xlfn.SINGLE( INDIRECT(ADDRESS(ROW() - 1, MATCH("t_pack_fin", mvess_Header, 0)))))</f>
+        <v>90</v>
+      </c>
+      <c r="N9" s="40" cm="1">
+        <f t="array" aca="1" ref="N9" ca="1">IF(_xlfn.SINGLE(mvess_IsInitRow), _xlfn.SINGLE(mvess_t_make_init), [1]!ROWSHIFTVAL(-2, "t_pack_fin"))</f>
+        <v>630</v>
+      </c>
+      <c r="O9" s="39">
+        <f ca="1">IFERROR(MAX(_xlfn.SINGLE(mvess_t_make_fin), [1]!ROWSHIFTVAL(-1,"t_pack_fin")), _xlfn.SINGLE(mvess_t_make_fin))</f>
+        <v>720</v>
+      </c>
+      <c r="P9" s="39" cm="1">
+        <f t="array" aca="1" ref="P9" ca="1">IF(_xlfn.SINGLE(mvess_IsInitRow), "", _xlfn.SINGLE(mvess_t_pack_fin) - [1]!ROWSHIFTVAL(-1,"t_pack_fin"))</f>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1537,818 +1904,819 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFED17B9-A64B-48D4-A999-3C8CD5DAC81B}">
-  <sheetPr codeName="Sheet3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A0C472-5B42-44AB-B363-7B2879216866}">
+  <sheetPr codeName="Sheet12">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.06640625" customWidth="1"/>
-    <col min="3" max="3" width="4.73046875" customWidth="1"/>
-    <col min="4" max="4" width="9.53125" customWidth="1"/>
-    <col min="5" max="5" width="12.73046875" customWidth="1"/>
-    <col min="6" max="10" width="9.53125" customWidth="1"/>
+    <col min="1" max="2" width="8.59765625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="6.59765625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="6.59765625" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" customWidth="1"/>
+    <col min="6" max="10" width="7.59765625" customWidth="1"/>
+    <col min="11" max="16384" width="9.06640625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="22">
+      <c r="A2" s="21">
         <v>0.1</v>
       </c>
       <c r="B2" s="9">
         <v>2</v>
       </c>
-      <c r="C2" s="9">
-        <v>90</v>
-      </c>
-      <c r="D2" s="21">
-        <f t="shared" ref="D2:D20" si="0">summ_tb*summ_r_tp_tb</f>
+      <c r="C2" s="8">
+        <v>90</v>
+      </c>
+      <c r="D2" s="32">
+        <f>summ_tb*summ_r_tp_tb</f>
         <v>9</v>
       </c>
-      <c r="E2" s="19" t="b">
-        <f t="shared" ref="E2:E20" si="1">summ_tb &lt;summ_tp</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="21">
-        <f t="shared" ref="F2:F20" si="2">IF(summ_IsPkg_Constr,summ_tp, (summ_tb+summ_tp)/summ_n_vessels)</f>
+      <c r="E2" s="41" t="b">
+        <f>summ_tb &lt;summ_tp</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), _xlfn.SINGLE(summ_tp), (_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp))/_xlfn.SINGLE(summ_n_vessels))</f>
         <v>49.5</v>
       </c>
-      <c r="G2" s="21">
-        <f t="shared" ref="G2:G20" si="3">IF(summ_IsPkg_Constr,summ_tp -summ_tb, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="21">
-        <f t="shared" ref="H2:H20" si="4">(1/summ_DT)*min.hr*hr.day</f>
+      <c r="G2" s="32">
+        <f>IF(summ_IsPkg_Constr,summ_tp -summ_tb, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), 1/_xlfn.SINGLE(summ_tp), _xlfn.SINGLE(summ_n_vessels)/(_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp)))*min.hr*hr.day</f>
         <v>29.090909090909093</v>
       </c>
-      <c r="I2" s="21">
-        <f t="shared" ref="I2:I20" si="5">(summ_n_vessels/summ_tb)*min.hr*hr.day</f>
+      <c r="I2" s="32">
+        <f>(summ_n_vessels/summ_tb)*min.hr*hr.day</f>
         <v>32</v>
       </c>
-      <c r="J2" s="37">
-        <f t="shared" ref="J2:J20" si="6">summ_Qb/summ_Qb_th</f>
+      <c r="J2" s="42">
+        <f>summ_Qb/summ_Qb_th</f>
         <v>0.90909090909090917</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="22">
+      <c r="A3" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="19">
+        <v>2</v>
+      </c>
+      <c r="C3" s="22">
+        <f>C$2</f>
+        <v>90</v>
+      </c>
+      <c r="D3" s="32">
+        <f>summ_tb*summ_r_tp_tb</f>
+        <v>18</v>
+      </c>
+      <c r="E3" s="41" t="b">
+        <f>summ_tb &lt;summ_tp</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), _xlfn.SINGLE(summ_tp), (_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp))/_xlfn.SINGLE(summ_n_vessels))</f>
+        <v>54</v>
+      </c>
+      <c r="G3" s="32">
+        <f>IF(summ_IsPkg_Constr,summ_tp -summ_tb, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), 1/_xlfn.SINGLE(summ_tp), _xlfn.SINGLE(summ_n_vessels)/(_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp)))*min.hr*hr.day</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="I3" s="32">
+        <f>(summ_n_vessels/summ_tb)*min.hr*hr.day</f>
+        <v>32</v>
+      </c>
+      <c r="J3" s="42">
+        <f>summ_Qb/summ_Qb_th</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="21">
+        <f>0.2+A3</f>
+        <v>0.4</v>
+      </c>
+      <c r="B4" s="19">
+        <v>2</v>
+      </c>
+      <c r="C4" s="22">
+        <f>C$2</f>
+        <v>90</v>
+      </c>
+      <c r="D4" s="32">
+        <f>summ_tb*summ_r_tp_tb</f>
+        <v>36</v>
+      </c>
+      <c r="E4" s="41" t="b">
+        <f>summ_tb &lt;summ_tp</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), _xlfn.SINGLE(summ_tp), (_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp))/_xlfn.SINGLE(summ_n_vessels))</f>
+        <v>63</v>
+      </c>
+      <c r="G4" s="32">
+        <f>IF(summ_IsPkg_Constr,summ_tp -summ_tb, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), 1/_xlfn.SINGLE(summ_tp), _xlfn.SINGLE(summ_n_vessels)/(_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp)))*min.hr*hr.day</f>
+        <v>22.857142857142854</v>
+      </c>
+      <c r="I4" s="32">
+        <f>(summ_n_vessels/summ_tb)*min.hr*hr.day</f>
+        <v>32</v>
+      </c>
+      <c r="J4" s="42">
+        <f>summ_Qb/summ_Qb_th</f>
+        <v>0.71428571428571419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="21">
         <v>0.5</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B5" s="19">
         <f>B$2</f>
         <v>2</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C5" s="22">
         <f>C$2</f>
         <v>90</v>
       </c>
-      <c r="D3" s="21">
-        <f t="shared" si="0"/>
+      <c r="D5" s="32">
+        <f>summ_tb*summ_r_tp_tb</f>
         <v>45</v>
       </c>
-      <c r="E3" s="19" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F3" s="21">
-        <f t="shared" si="2"/>
+      <c r="E5" s="41" t="b">
+        <f>summ_tb &lt;summ_tp</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), _xlfn.SINGLE(summ_tp), (_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp))/_xlfn.SINGLE(summ_n_vessels))</f>
         <v>67.5</v>
       </c>
-      <c r="G3" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H3" s="21">
-        <f t="shared" si="4"/>
+      <c r="G5" s="32">
+        <f>IF(summ_IsPkg_Constr,summ_tp -summ_tb, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), 1/_xlfn.SINGLE(summ_tp), _xlfn.SINGLE(summ_n_vessels)/(_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp)))*min.hr*hr.day</f>
         <v>21.333333333333336</v>
       </c>
-      <c r="I3" s="21">
-        <f t="shared" si="5"/>
+      <c r="I5" s="32">
+        <f>(summ_n_vessels/summ_tb)*min.hr*hr.day</f>
         <v>32</v>
       </c>
-      <c r="J3" s="37">
-        <f t="shared" si="6"/>
+      <c r="J5" s="42">
+        <f>summ_Qb/summ_Qb_th</f>
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="22">
-        <v>1</v>
-      </c>
-      <c r="B4" s="20">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="21">
+        <f>0.2+A5</f>
+        <v>0.7</v>
+      </c>
+      <c r="B6" s="19">
         <v>2</v>
       </c>
-      <c r="C4" s="20">
-        <f t="shared" ref="C4:C20" si="7">C$2</f>
-        <v>90</v>
-      </c>
-      <c r="D4" s="21">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="E4" s="19" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="21">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="G4" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="21">
-        <f t="shared" si="4"/>
+      <c r="C6" s="22">
+        <f>C$2</f>
+        <v>90</v>
+      </c>
+      <c r="D6" s="32">
+        <f>summ_tb*summ_r_tp_tb</f>
+        <v>62.999999999999993</v>
+      </c>
+      <c r="E6" s="41" t="b">
+        <f>summ_tb &lt;summ_tp</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), _xlfn.SINGLE(summ_tp), (_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp))/_xlfn.SINGLE(summ_n_vessels))</f>
+        <v>76.5</v>
+      </c>
+      <c r="G6" s="32">
+        <f>IF(summ_IsPkg_Constr,summ_tp -summ_tb, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), 1/_xlfn.SINGLE(summ_tp), _xlfn.SINGLE(summ_n_vessels)/(_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp)))*min.hr*hr.day</f>
+        <v>18.823529411764707</v>
+      </c>
+      <c r="I6" s="32">
+        <f>(summ_n_vessels/summ_tb)*min.hr*hr.day</f>
+        <v>32</v>
+      </c>
+      <c r="J6" s="42">
+        <f>summ_Qb/summ_Qb_th</f>
+        <v>0.58823529411764708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="21">
+        <f>0.2+A6</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="B7" s="19">
+        <v>2</v>
+      </c>
+      <c r="C7" s="22">
+        <f>C$2</f>
+        <v>90</v>
+      </c>
+      <c r="D7" s="32">
+        <f>summ_tb*summ_r_tp_tb</f>
+        <v>80.999999999999986</v>
+      </c>
+      <c r="E7" s="41" t="b">
+        <f>summ_tb &lt;summ_tp</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), _xlfn.SINGLE(summ_tp), (_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp))/_xlfn.SINGLE(summ_n_vessels))</f>
+        <v>85.5</v>
+      </c>
+      <c r="G7" s="32">
+        <f>IF(summ_IsPkg_Constr,summ_tp -summ_tb, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), 1/_xlfn.SINGLE(summ_tp), _xlfn.SINGLE(summ_n_vessels)/(_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp)))*min.hr*hr.day</f>
+        <v>16.842105263157894</v>
+      </c>
+      <c r="I7" s="32">
+        <f>(summ_n_vessels/summ_tb)*min.hr*hr.day</f>
+        <v>32</v>
+      </c>
+      <c r="J7" s="42">
+        <f>summ_Qb/summ_Qb_th</f>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="21">
+        <v>1</v>
+      </c>
+      <c r="B8" s="19">
+        <v>2</v>
+      </c>
+      <c r="C8" s="22">
+        <f>C$2</f>
+        <v>90</v>
+      </c>
+      <c r="D8" s="32">
+        <f>summ_tb*summ_r_tp_tb</f>
+        <v>90</v>
+      </c>
+      <c r="E8" s="41" t="b">
+        <f>summ_tb &lt;summ_tp</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), _xlfn.SINGLE(summ_tp), (_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp))/_xlfn.SINGLE(summ_n_vessels))</f>
+        <v>90</v>
+      </c>
+      <c r="G8" s="32">
+        <f>IF(summ_IsPkg_Constr,summ_tp -summ_tb, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), 1/_xlfn.SINGLE(summ_tp), _xlfn.SINGLE(summ_n_vessels)/(_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp)))*min.hr*hr.day</f>
         <v>16</v>
       </c>
-      <c r="I4" s="21">
-        <f t="shared" si="5"/>
+      <c r="I8" s="32">
+        <f>(summ_n_vessels/summ_tb)*min.hr*hr.day</f>
         <v>32</v>
       </c>
-      <c r="J4" s="37">
-        <f t="shared" si="6"/>
+      <c r="J8" s="42">
+        <f>summ_Qb/summ_Qb_th</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="22">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="B9" s="19">
+        <v>2</v>
+      </c>
+      <c r="C9" s="22">
+        <f>C$2</f>
+        <v>90</v>
+      </c>
+      <c r="D9" s="32">
+        <f>summ_tb*summ_r_tp_tb</f>
+        <v>108</v>
+      </c>
+      <c r="E9" s="41" t="b">
+        <f>summ_tb &lt;summ_tp</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), _xlfn.SINGLE(summ_tp), (_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp))/_xlfn.SINGLE(summ_n_vessels))</f>
+        <v>108</v>
+      </c>
+      <c r="G9" s="32">
+        <f>IF(summ_IsPkg_Constr,summ_tp -summ_tb, 0)</f>
+        <v>18</v>
+      </c>
+      <c r="H9" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), 1/_xlfn.SINGLE(summ_tp), _xlfn.SINGLE(summ_n_vessels)/(_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp)))*min.hr*hr.day</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="I9" s="32">
+        <f>(summ_n_vessels/summ_tb)*min.hr*hr.day</f>
+        <v>32</v>
+      </c>
+      <c r="J9" s="42">
+        <f>summ_Qb/summ_Qb_th</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B10" s="19">
+        <v>2</v>
+      </c>
+      <c r="C10" s="22">
+        <f>C$2</f>
+        <v>90</v>
+      </c>
+      <c r="D10" s="32">
+        <f>summ_tb*summ_r_tp_tb</f>
+        <v>125.99999999999999</v>
+      </c>
+      <c r="E10" s="41" t="b">
+        <f>summ_tb &lt;summ_tp</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), _xlfn.SINGLE(summ_tp), (_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp))/_xlfn.SINGLE(summ_n_vessels))</f>
+        <v>125.99999999999999</v>
+      </c>
+      <c r="G10" s="32">
+        <f>IF(summ_IsPkg_Constr,summ_tp -summ_tb, 0)</f>
+        <v>35.999999999999986</v>
+      </c>
+      <c r="H10" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), 1/_xlfn.SINGLE(summ_tp), _xlfn.SINGLE(summ_n_vessels)/(_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp)))*min.hr*hr.day</f>
+        <v>11.428571428571431</v>
+      </c>
+      <c r="I10" s="32">
+        <f>(summ_n_vessels/summ_tb)*min.hr*hr.day</f>
+        <v>32</v>
+      </c>
+      <c r="J10" s="42">
+        <f>summ_Qb/summ_Qb_th</f>
+        <v>0.35714285714285721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="21">
         <v>1.5</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B11" s="19">
         <v>2</v>
       </c>
-      <c r="C5" s="20">
-        <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="D5" s="21">
-        <f t="shared" si="0"/>
+      <c r="C11" s="22">
+        <f>C$2</f>
+        <v>90</v>
+      </c>
+      <c r="D11" s="32">
+        <f>summ_tb*summ_r_tp_tb</f>
         <v>135</v>
       </c>
-      <c r="E5" s="19" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F5" s="21">
-        <f t="shared" si="2"/>
+      <c r="E11" s="41" t="b">
+        <f>summ_tb &lt;summ_tp</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), _xlfn.SINGLE(summ_tp), (_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp))/_xlfn.SINGLE(summ_n_vessels))</f>
         <v>135</v>
       </c>
-      <c r="G5" s="21">
-        <f t="shared" si="3"/>
+      <c r="G11" s="32">
+        <f>IF(summ_IsPkg_Constr,summ_tp -summ_tb, 0)</f>
         <v>45</v>
       </c>
-      <c r="H5" s="21">
-        <f t="shared" si="4"/>
+      <c r="H11" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), 1/_xlfn.SINGLE(summ_tp), _xlfn.SINGLE(summ_n_vessels)/(_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp)))*min.hr*hr.day</f>
         <v>10.666666666666668</v>
       </c>
-      <c r="I5" s="21">
-        <f t="shared" si="5"/>
+      <c r="I11" s="32">
+        <f>(summ_n_vessels/summ_tb)*min.hr*hr.day</f>
         <v>32</v>
       </c>
-      <c r="J5" s="37">
-        <f t="shared" si="6"/>
+      <c r="J11" s="42">
+        <f>summ_Qb/summ_Qb_th</f>
         <v>0.33333333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="22">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="B12" s="19">
         <v>2</v>
       </c>
-      <c r="B6" s="20">
+      <c r="C12" s="22">
+        <f>C$2</f>
+        <v>90</v>
+      </c>
+      <c r="D12" s="32">
+        <f>summ_tb*summ_r_tp_tb</f>
+        <v>144</v>
+      </c>
+      <c r="E12" s="41" t="b">
+        <f>summ_tb &lt;summ_tp</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), _xlfn.SINGLE(summ_tp), (_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp))/_xlfn.SINGLE(summ_n_vessels))</f>
+        <v>144</v>
+      </c>
+      <c r="G12" s="32">
+        <f>IF(summ_IsPkg_Constr,summ_tp -summ_tb, 0)</f>
+        <v>54</v>
+      </c>
+      <c r="H12" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), 1/_xlfn.SINGLE(summ_tp), _xlfn.SINGLE(summ_n_vessels)/(_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp)))*min.hr*hr.day</f>
+        <v>10</v>
+      </c>
+      <c r="I12" s="32">
+        <f>(summ_n_vessels/summ_tb)*min.hr*hr.day</f>
+        <v>32</v>
+      </c>
+      <c r="J12" s="42">
+        <f>summ_Qb/summ_Qb_th</f>
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="B13" s="19">
         <v>2</v>
       </c>
-      <c r="C6" s="20">
-        <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="D6" s="21">
-        <f t="shared" si="0"/>
+      <c r="C13" s="22">
+        <f>C$2</f>
+        <v>90</v>
+      </c>
+      <c r="D13" s="32">
+        <f>summ_tb*summ_r_tp_tb</f>
+        <v>162</v>
+      </c>
+      <c r="E13" s="41" t="b">
+        <f>summ_tb &lt;summ_tp</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), _xlfn.SINGLE(summ_tp), (_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp))/_xlfn.SINGLE(summ_n_vessels))</f>
+        <v>162</v>
+      </c>
+      <c r="G13" s="32">
+        <f>IF(summ_IsPkg_Constr,summ_tp -summ_tb, 0)</f>
+        <v>72</v>
+      </c>
+      <c r="H13" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), 1/_xlfn.SINGLE(summ_tp), _xlfn.SINGLE(summ_n_vessels)/(_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp)))*min.hr*hr.day</f>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="I13" s="32">
+        <f>(summ_n_vessels/summ_tb)*min.hr*hr.day</f>
+        <v>32</v>
+      </c>
+      <c r="J13" s="42">
+        <f>summ_Qb/summ_Qb_th</f>
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="21">
+        <v>2</v>
+      </c>
+      <c r="B14" s="19">
+        <v>2</v>
+      </c>
+      <c r="C14" s="22">
+        <f>C$2</f>
+        <v>90</v>
+      </c>
+      <c r="D14" s="32">
+        <f>summ_tb*summ_r_tp_tb</f>
         <v>180</v>
       </c>
-      <c r="E6" s="19" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F6" s="21">
-        <f t="shared" si="2"/>
+      <c r="E14" s="41" t="b">
+        <f>summ_tb &lt;summ_tp</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), _xlfn.SINGLE(summ_tp), (_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp))/_xlfn.SINGLE(summ_n_vessels))</f>
         <v>180</v>
       </c>
-      <c r="G6" s="21">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="H6" s="21">
-        <f t="shared" si="4"/>
+      <c r="G14" s="32">
+        <f>IF(summ_IsPkg_Constr,summ_tp -summ_tb, 0)</f>
+        <v>90</v>
+      </c>
+      <c r="H14" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), 1/_xlfn.SINGLE(summ_tp), _xlfn.SINGLE(summ_n_vessels)/(_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp)))*min.hr*hr.day</f>
         <v>8</v>
       </c>
-      <c r="I6" s="21">
-        <f t="shared" si="5"/>
+      <c r="I14" s="32">
+        <f>(summ_n_vessels/summ_tb)*min.hr*hr.day</f>
         <v>32</v>
       </c>
-      <c r="J6" s="37">
-        <f t="shared" si="6"/>
+      <c r="J14" s="42">
+        <f>summ_Qb/summ_Qb_th</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="B7" s="20">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" s="21">
+        <v>3</v>
+      </c>
+      <c r="B15" s="19">
         <v>2</v>
       </c>
-      <c r="C7" s="20">
-        <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="D7" s="21">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E7" s="19" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="21">
-        <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="G7" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="21">
-        <f t="shared" si="4"/>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="I7" s="21">
-        <f t="shared" si="5"/>
+      <c r="C15" s="22">
+        <f>C$2</f>
+        <v>90</v>
+      </c>
+      <c r="D15" s="32">
+        <f>summ_tb*summ_r_tp_tb</f>
+        <v>270</v>
+      </c>
+      <c r="E15" s="41" t="b">
+        <f>summ_tb &lt;summ_tp</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), _xlfn.SINGLE(summ_tp), (_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp))/_xlfn.SINGLE(summ_n_vessels))</f>
+        <v>270</v>
+      </c>
+      <c r="G15" s="32">
+        <f>IF(summ_IsPkg_Constr,summ_tp -summ_tb, 0)</f>
+        <v>180</v>
+      </c>
+      <c r="H15" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), 1/_xlfn.SINGLE(summ_tp), _xlfn.SINGLE(summ_n_vessels)/(_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp)))*min.hr*hr.day</f>
+        <v>5.3333333333333339</v>
+      </c>
+      <c r="I15" s="32">
+        <f>(summ_n_vessels/summ_tb)*min.hr*hr.day</f>
         <v>32</v>
       </c>
-      <c r="J7" s="37">
-        <f t="shared" si="6"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="22">
-        <f>0.2+A7</f>
-        <v>0.4</v>
-      </c>
-      <c r="B8" s="20">
+      <c r="J15" s="42">
+        <f>summ_Qb/summ_Qb_th</f>
+        <v>0.16666666666666669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="21">
+        <v>4</v>
+      </c>
+      <c r="B16" s="19">
         <v>2</v>
       </c>
-      <c r="C8" s="20">
-        <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="D8" s="21">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="E8" s="19" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="21">
-        <f t="shared" si="2"/>
-        <v>63</v>
-      </c>
-      <c r="G8" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="21">
-        <f t="shared" si="4"/>
-        <v>22.857142857142854</v>
-      </c>
-      <c r="I8" s="21">
-        <f t="shared" si="5"/>
+      <c r="C16" s="22">
+        <f>C$2</f>
+        <v>90</v>
+      </c>
+      <c r="D16" s="32">
+        <f>summ_tb*summ_r_tp_tb</f>
+        <v>360</v>
+      </c>
+      <c r="E16" s="41" t="b">
+        <f>summ_tb &lt;summ_tp</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), _xlfn.SINGLE(summ_tp), (_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp))/_xlfn.SINGLE(summ_n_vessels))</f>
+        <v>360</v>
+      </c>
+      <c r="G16" s="32">
+        <f>IF(summ_IsPkg_Constr,summ_tp -summ_tb, 0)</f>
+        <v>270</v>
+      </c>
+      <c r="H16" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), 1/_xlfn.SINGLE(summ_tp), _xlfn.SINGLE(summ_n_vessels)/(_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp)))*min.hr*hr.day</f>
+        <v>4</v>
+      </c>
+      <c r="I16" s="32">
+        <f>(summ_n_vessels/summ_tb)*min.hr*hr.day</f>
         <v>32</v>
       </c>
-      <c r="J8" s="37">
-        <f t="shared" si="6"/>
-        <v>0.71428571428571419</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="22">
-        <f t="shared" ref="A9:A10" si="8">0.2+A8</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="B9" s="20">
+      <c r="J16" s="42">
+        <f>summ_Qb/summ_Qb_th</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="21">
+        <v>5</v>
+      </c>
+      <c r="B17" s="19">
         <v>2</v>
       </c>
-      <c r="C9" s="20">
-        <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="D9" s="21">
-        <f t="shared" si="0"/>
-        <v>54.000000000000007</v>
-      </c>
-      <c r="E9" s="19" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="21">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="G9" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="21">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="I9" s="21">
-        <f t="shared" si="5"/>
+      <c r="C17" s="22">
+        <f>C$2</f>
+        <v>90</v>
+      </c>
+      <c r="D17" s="32">
+        <f>summ_tb*summ_r_tp_tb</f>
+        <v>450</v>
+      </c>
+      <c r="E17" s="41" t="b">
+        <f>summ_tb &lt;summ_tp</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), _xlfn.SINGLE(summ_tp), (_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp))/_xlfn.SINGLE(summ_n_vessels))</f>
+        <v>450</v>
+      </c>
+      <c r="G17" s="32">
+        <f>IF(summ_IsPkg_Constr,summ_tp -summ_tb, 0)</f>
+        <v>360</v>
+      </c>
+      <c r="H17" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), 1/_xlfn.SINGLE(summ_tp), _xlfn.SINGLE(summ_n_vessels)/(_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp)))*min.hr*hr.day</f>
+        <v>3.2</v>
+      </c>
+      <c r="I17" s="32">
+        <f>(summ_n_vessels/summ_tb)*min.hr*hr.day</f>
         <v>32</v>
       </c>
-      <c r="J9" s="37">
-        <f t="shared" si="6"/>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="22">
-        <f t="shared" si="8"/>
-        <v>0.8</v>
-      </c>
-      <c r="B10" s="20">
+      <c r="J17" s="42">
+        <f>summ_Qb/summ_Qb_th</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="21">
+        <v>6</v>
+      </c>
+      <c r="B18" s="19">
         <v>2</v>
       </c>
-      <c r="C10" s="20">
-        <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="D10" s="21">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="E10" s="19" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="21">
-        <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="G10" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="21">
-        <f t="shared" si="4"/>
-        <v>17.777777777777779</v>
-      </c>
-      <c r="I10" s="21">
-        <f t="shared" si="5"/>
+      <c r="C18" s="22">
+        <f>C$2</f>
+        <v>90</v>
+      </c>
+      <c r="D18" s="32">
+        <f>summ_tb*summ_r_tp_tb</f>
+        <v>540</v>
+      </c>
+      <c r="E18" s="41" t="b">
+        <f>summ_tb &lt;summ_tp</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), _xlfn.SINGLE(summ_tp), (_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp))/_xlfn.SINGLE(summ_n_vessels))</f>
+        <v>540</v>
+      </c>
+      <c r="G18" s="32">
+        <f>IF(summ_IsPkg_Constr,summ_tp -summ_tb, 0)</f>
+        <v>450</v>
+      </c>
+      <c r="H18" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), 1/_xlfn.SINGLE(summ_tp), _xlfn.SINGLE(summ_n_vessels)/(_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp)))*min.hr*hr.day</f>
+        <v>2.666666666666667</v>
+      </c>
+      <c r="I18" s="32">
+        <f>(summ_n_vessels/summ_tb)*min.hr*hr.day</f>
         <v>32</v>
       </c>
-      <c r="J10" s="37">
-        <f t="shared" si="6"/>
-        <v>0.55555555555555558</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="22">
-        <v>1.2</v>
-      </c>
-      <c r="B11" s="20">
+      <c r="J18" s="42">
+        <f>summ_Qb/summ_Qb_th</f>
+        <v>8.3333333333333343E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="21">
+        <v>8</v>
+      </c>
+      <c r="B19" s="19">
         <v>2</v>
       </c>
-      <c r="C11" s="20">
-        <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="D11" s="21">
-        <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-      <c r="E11" s="19" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F11" s="21">
-        <f t="shared" si="2"/>
-        <v>108</v>
-      </c>
-      <c r="G11" s="21">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="H11" s="21">
-        <f t="shared" si="4"/>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="I11" s="21">
-        <f t="shared" si="5"/>
+      <c r="C19" s="22">
+        <f>C$2</f>
+        <v>90</v>
+      </c>
+      <c r="D19" s="32">
+        <f>summ_tb*summ_r_tp_tb</f>
+        <v>720</v>
+      </c>
+      <c r="E19" s="41" t="b">
+        <f>summ_tb &lt;summ_tp</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), _xlfn.SINGLE(summ_tp), (_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp))/_xlfn.SINGLE(summ_n_vessels))</f>
+        <v>720</v>
+      </c>
+      <c r="G19" s="32">
+        <f>IF(summ_IsPkg_Constr,summ_tp -summ_tb, 0)</f>
+        <v>630</v>
+      </c>
+      <c r="H19" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), 1/_xlfn.SINGLE(summ_tp), _xlfn.SINGLE(summ_n_vessels)/(_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp)))*min.hr*hr.day</f>
+        <v>2</v>
+      </c>
+      <c r="I19" s="32">
+        <f>(summ_n_vessels/summ_tb)*min.hr*hr.day</f>
         <v>32</v>
       </c>
-      <c r="J11" s="37">
-        <f t="shared" si="6"/>
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="22">
-        <v>1.4</v>
-      </c>
-      <c r="B12" s="20">
+      <c r="J19" s="42">
+        <f>summ_Qb/summ_Qb_th</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="21">
+        <v>10</v>
+      </c>
+      <c r="B20" s="19">
         <v>2</v>
       </c>
-      <c r="C12" s="20">
-        <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="D12" s="21">
-        <f t="shared" si="0"/>
-        <v>125.99999999999999</v>
-      </c>
-      <c r="E12" s="19" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F12" s="21">
-        <f t="shared" si="2"/>
-        <v>125.99999999999999</v>
-      </c>
-      <c r="G12" s="21">
-        <f t="shared" si="3"/>
-        <v>35.999999999999986</v>
-      </c>
-      <c r="H12" s="21">
-        <f t="shared" si="4"/>
-        <v>11.428571428571431</v>
-      </c>
-      <c r="I12" s="21">
-        <f t="shared" si="5"/>
+      <c r="C20" s="22">
+        <f>C$2</f>
+        <v>90</v>
+      </c>
+      <c r="D20" s="32">
+        <f>summ_tb*summ_r_tp_tb</f>
+        <v>900</v>
+      </c>
+      <c r="E20" s="41" t="b">
+        <f>summ_tb &lt;summ_tp</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), _xlfn.SINGLE(summ_tp), (_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp))/_xlfn.SINGLE(summ_n_vessels))</f>
+        <v>900</v>
+      </c>
+      <c r="G20" s="32">
+        <f>IF(summ_IsPkg_Constr,summ_tp -summ_tb, 0)</f>
+        <v>810</v>
+      </c>
+      <c r="H20" s="32">
+        <f>IF(_xlfn.SINGLE(summ_IsPkg_Constr), 1/_xlfn.SINGLE(summ_tp), _xlfn.SINGLE(summ_n_vessels)/(_xlfn.SINGLE(summ_tb)+_xlfn.SINGLE(summ_tp)))*min.hr*hr.day</f>
+        <v>1.6</v>
+      </c>
+      <c r="I20" s="32">
+        <f>(summ_n_vessels/summ_tb)*min.hr*hr.day</f>
         <v>32</v>
       </c>
-      <c r="J12" s="37">
-        <f t="shared" si="6"/>
-        <v>0.35714285714285721</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="22">
-        <v>1.6</v>
-      </c>
-      <c r="B13" s="20">
-        <v>2</v>
-      </c>
-      <c r="C13" s="20">
-        <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="D13" s="21">
-        <f t="shared" si="0"/>
-        <v>144</v>
-      </c>
-      <c r="E13" s="19" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F13" s="21">
-        <f t="shared" si="2"/>
-        <v>144</v>
-      </c>
-      <c r="G13" s="21">
-        <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-      <c r="H13" s="21">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="I13" s="21">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="J13" s="37">
-        <f t="shared" si="6"/>
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="22">
-        <v>1.8</v>
-      </c>
-      <c r="B14" s="20">
-        <v>2</v>
-      </c>
-      <c r="C14" s="20">
-        <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="D14" s="21">
-        <f t="shared" si="0"/>
-        <v>162</v>
-      </c>
-      <c r="E14" s="19" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F14" s="21">
-        <f t="shared" si="2"/>
-        <v>162</v>
-      </c>
-      <c r="G14" s="21">
-        <f t="shared" si="3"/>
-        <v>72</v>
-      </c>
-      <c r="H14" s="21">
-        <f t="shared" si="4"/>
-        <v>8.8888888888888893</v>
-      </c>
-      <c r="I14" s="21">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="J14" s="37">
-        <f t="shared" si="6"/>
-        <v>0.27777777777777779</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="22">
-        <v>3</v>
-      </c>
-      <c r="B15" s="20">
-        <v>2</v>
-      </c>
-      <c r="C15" s="20">
-        <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="D15" s="21">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="E15" s="19" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F15" s="21">
-        <f t="shared" si="2"/>
-        <v>270</v>
-      </c>
-      <c r="G15" s="21">
-        <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="H15" s="21">
-        <f t="shared" si="4"/>
-        <v>5.3333333333333339</v>
-      </c>
-      <c r="I15" s="21">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="J15" s="37">
-        <f t="shared" si="6"/>
-        <v>0.16666666666666669</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="22">
-        <v>4</v>
-      </c>
-      <c r="B16" s="20">
-        <v>2</v>
-      </c>
-      <c r="C16" s="20">
-        <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="D16" s="21">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="E16" s="19" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F16" s="21">
-        <f t="shared" si="2"/>
-        <v>360</v>
-      </c>
-      <c r="G16" s="21">
-        <f t="shared" si="3"/>
-        <v>270</v>
-      </c>
-      <c r="H16" s="21">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="I16" s="21">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="J16" s="37">
-        <f t="shared" si="6"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="22">
-        <v>5</v>
-      </c>
-      <c r="B17" s="20">
-        <v>2</v>
-      </c>
-      <c r="C17" s="20">
-        <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="D17" s="21">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="E17" s="19" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F17" s="21">
-        <f t="shared" si="2"/>
-        <v>450</v>
-      </c>
-      <c r="G17" s="21">
-        <f t="shared" si="3"/>
-        <v>360</v>
-      </c>
-      <c r="H17" s="21">
-        <f t="shared" si="4"/>
-        <v>3.2</v>
-      </c>
-      <c r="I17" s="21">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="J17" s="37">
-        <f t="shared" si="6"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="22">
-        <v>6</v>
-      </c>
-      <c r="B18" s="20">
-        <v>2</v>
-      </c>
-      <c r="C18" s="20">
-        <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="D18" s="21">
-        <f t="shared" si="0"/>
-        <v>540</v>
-      </c>
-      <c r="E18" s="19" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F18" s="21">
-        <f t="shared" si="2"/>
-        <v>540</v>
-      </c>
-      <c r="G18" s="21">
-        <f t="shared" si="3"/>
-        <v>450</v>
-      </c>
-      <c r="H18" s="21">
-        <f t="shared" si="4"/>
-        <v>2.666666666666667</v>
-      </c>
-      <c r="I18" s="21">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="J18" s="37">
-        <f t="shared" si="6"/>
-        <v>8.3333333333333343E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="22">
-        <v>8</v>
-      </c>
-      <c r="B19" s="20">
-        <v>2</v>
-      </c>
-      <c r="C19" s="20">
-        <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="D19" s="21">
-        <f t="shared" si="0"/>
-        <v>720</v>
-      </c>
-      <c r="E19" s="19" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F19" s="21">
-        <f t="shared" si="2"/>
-        <v>720</v>
-      </c>
-      <c r="G19" s="21">
-        <f t="shared" si="3"/>
-        <v>630</v>
-      </c>
-      <c r="H19" s="21">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="I19" s="21">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="J19" s="37">
-        <f t="shared" si="6"/>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="22">
-        <v>10</v>
-      </c>
-      <c r="B20" s="20">
-        <v>2</v>
-      </c>
-      <c r="C20" s="20">
-        <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="D20" s="21">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="E20" s="19" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F20" s="21">
-        <f t="shared" si="2"/>
-        <v>900</v>
-      </c>
-      <c r="G20" s="21">
-        <f t="shared" si="3"/>
-        <v>810</v>
-      </c>
-      <c r="H20" s="21">
-        <f t="shared" si="4"/>
-        <v>1.6</v>
-      </c>
-      <c r="I20" s="21">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="J20" s="37">
-        <f t="shared" si="6"/>
+      <c r="J20" s="42">
+        <f>summ_Qb/summ_Qb_th</f>
         <v>0.05</v>
       </c>
     </row>
@@ -2361,7 +2729,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFA3B2F-04FD-4C5B-81C5-8A28609F4B7C}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2438,13 +2806,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -2453,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -2461,13 +2829,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -2476,6 +2844,29 @@
         <v>0</v>
       </c>
       <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2490,18 +2881,18 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.59765625" customWidth="1"/>
     <col min="2" max="2" width="7.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.1328125" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.265625" customWidth="1"/>
     <col min="5" max="5" width="6.86328125" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="12.73046875" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="17.796875" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="4.59765625" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
   </cols>
@@ -2567,24 +2958,25 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B57DC9-90C3-4228-B9F3-02E84428D12E}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="13.19921875" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="41" style="32" customWidth="1"/>
-    <col min="5" max="5" width="13.19921875" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="27.1328125" style="33" customWidth="1"/>
-    <col min="8" max="8" width="7.59765625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="7.59765625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="13.19921875" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.59765625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="27.1328125" style="37" customWidth="1"/>
+    <col min="8" max="8" width="7.59765625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="7.59765625" style="35" customWidth="1"/>
+    <col min="10" max="16384" width="9.06640625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.45">
@@ -2617,22 +3009,36 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24" t="s">
+      <c r="A2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="23"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>31</v>
@@ -2643,17 +3049,19 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="7" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I3" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2661,7 +3069,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>0</v>
@@ -2673,16 +3081,18 @@
         <v>32</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I4" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="B5" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>31</v>
@@ -2693,71 +3103,75 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I5" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="F6" s="4" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I6" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="7" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I7" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:9" ht="35.65" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>31</v>
@@ -2768,19 +3182,19 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>51</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H8" s="5"/>
       <c r="I8" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="24" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>31</v>
@@ -2791,64 +3205,603 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="24" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="24" x14ac:dyDescent="0.45">
+      <c r="A14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="35.65" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="35.65" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="35.65" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="24" x14ac:dyDescent="0.45">
+      <c r="A27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+    <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.45">
+      <c r="A28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="24" x14ac:dyDescent="0.45">
+      <c r="A29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="24" x14ac:dyDescent="0.45">
+      <c r="A30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="35.65" x14ac:dyDescent="0.45">
+      <c r="A31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="4">
-        <v>12</v>
-      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{078DA5E6-6A7A-40B9-9F8F-BF593A3EBD0C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C61" xr:uid="{078DA5E6-6A7A-40B9-9F8F-BF593A3EBD0C}">
       <formula1>"Col_Format,Col_Insert,Col_Delete,Col_AddGroup,Col_CondFormat,Col_Dropdown,Tbl_FreezeRow1,Tbl_Sort,Tbl_SplitCols"</formula1>
     </dataValidation>
   </dataValidations>
